--- a/Version_4/IoT_Interactive_Registraion_UWP/sample.xlsx
+++ b/Version_4/IoT_Interactive_Registraion_UWP/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-altsai\Documents\Visual Studio 2017\IoT_Interactive_Registraion_UWP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\IoTCenter-Disneyland\Digital Signature - Uwp\Version_4\IoT_Interactive_Registraion_UWP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5075EBE-D60D-4ED6-855C-EDADD84009B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832268A-2699-4CEE-80AB-37DD7A6D48C4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5175" xr2:uid="{011F6588-CB77-4BE2-9ABA-56AFBA08CE40}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>VisitorName</t>
   </si>
@@ -36,15 +36,6 @@
     <t>Arrived</t>
   </si>
   <si>
-    <t>VisitTime</t>
-  </si>
-  <si>
-    <t>CreateTime</t>
-  </si>
-  <si>
-    <t>NFCid</t>
-  </si>
-  <si>
     <t>Alice Tsai</t>
   </si>
   <si>
@@ -70,10 +61,6 @@
   </si>
   <si>
     <t>微軟</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
@@ -88,18 +75,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>EventId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VisitPurpose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IoTworkshop</t>
+    <t>VisitorId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +102,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,14 +133,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,27 +454,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21027F1-E8B4-4910-BD55-0E7D311B9096}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.46484375" customWidth="1"/>
     <col min="2" max="2" width="14.9296875" customWidth="1"/>
     <col min="3" max="3" width="20.9296875" customWidth="1"/>
     <col min="4" max="4" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="24.86328125" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
-    <col min="7" max="7" width="23.86328125" customWidth="1"/>
-    <col min="8" max="8" width="14.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -501,147 +481,93 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
